--- a/nuon/instagram_posts____abrill.xlsx
+++ b/nuon/instagram_posts____abrill.xlsx
@@ -2982,7 +2982,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>288</v>
       </c>
       <c r="E31">
         <v>62</v>
